--- a/biology/Botanique/Malus_halliana/Malus_halliana.xlsx
+++ b/biology/Botanique/Malus_halliana/Malus_halliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malus halliana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier sauvage connu sous le nom de Pommetier de Hall. Originaire d'Asie de l'Est, son nom en chinois est chui si hai tang.
 </t>
